--- a/Daftar Kos.xlsx
+++ b/Daftar Kos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devidba\Documents\GitHub\Kost-Jakarta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\metrodata\latihan bootcamp 1\git\Kost-Jakarta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066A6A72-00D5-4878-9374-D556692952E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Nama Kos</t>
   </si>
@@ -114,12 +115,15 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Erick</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,26 +179,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:Q5" totalsRowShown="0">
-  <autoFilter ref="A2:Q5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:Q5" totalsRowShown="0">
+  <autoFilter ref="A2:Q5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="No"/>
-    <tableColumn id="2" name="Nama Kos"/>
-    <tableColumn id="3" name="Alamat"/>
-    <tableColumn id="4" name="Kontak"/>
-    <tableColumn id="5" name="Estimasi Waktu"/>
-    <tableColumn id="6" name="Harga/bulan"/>
-    <tableColumn id="7" name="Bed"/>
-    <tableColumn id="8" name="Lemari"/>
-    <tableColumn id="9" name="Meja"/>
-    <tableColumn id="10" name="KM(dalam/luar)"/>
-    <tableColumn id="11" name="Dapur Umum"/>
-    <tableColumn id="12" name="Laundry"/>
-    <tableColumn id="13" name="Listrik"/>
-    <tableColumn id="14" name="Air Minum"/>
-    <tableColumn id="15" name="Satpam"/>
-    <tableColumn id="16" name="Jam Malam"/>
-    <tableColumn id="17" name="Akses"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nama Kos"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Alamat"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Kontak"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Estimasi Waktu"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Harga/bulan"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Bed"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Lemari"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Meja"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="KM(dalam/luar)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Dapur Umum"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Laundry"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Listrik"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Air Minum"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Satpam"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Jam Malam"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Akses"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -462,11 +466,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,6 +639,9 @@
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Daftar Kos.xlsx
+++ b/Daftar Kos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devidba\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHAIRUL MUNA\Desktop\Kos\Kost-Jakarta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4B3B00-CD4D-41D7-95BA-99522E84A478}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Nama Kos</t>
   </si>
@@ -102,12 +103,24 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arif </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yogyakarta </t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>dalam</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,12 +151,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,16 +437,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
@@ -444,18 +459,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -544,11 +559,40 @@
       <c r="O3" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>0.45833333333333331</v>
       </c>
       <c r="Q3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>88812181281</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Daftar Kos.xlsx
+++ b/Daftar Kos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHAIRUL MUNA\Desktop\Kos\Kost-Jakarta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devidba\Documents\GitHub\Kost-Jakarta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4B3B00-CD4D-41D7-95BA-99522E84A478}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +74,6 @@
     <t>DAVE KOS</t>
   </si>
   <si>
-    <t>1.300k/bulan</t>
-  </si>
-  <si>
     <t>Listrik</t>
   </si>
   <si>
@@ -115,12 +111,15 @@
   </si>
   <si>
     <t>dalam</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,10 +153,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -173,6 +172,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:Q5" totalsRowShown="0">
+  <autoFilter ref="A2:Q5"/>
+  <tableColumns count="17">
+    <tableColumn id="1" name="No"/>
+    <tableColumn id="2" name="Nama Kos"/>
+    <tableColumn id="3" name="Alamat"/>
+    <tableColumn id="4" name="Kontak"/>
+    <tableColumn id="5" name="Estimasi Waktu"/>
+    <tableColumn id="6" name="Harga/bulan"/>
+    <tableColumn id="7" name="Bed"/>
+    <tableColumn id="8" name="Lemari"/>
+    <tableColumn id="9" name="Meja"/>
+    <tableColumn id="10" name="KM(dalam/luar)"/>
+    <tableColumn id="11" name="Dapur Umum"/>
+    <tableColumn id="12" name="Laundry"/>
+    <tableColumn id="13" name="Listrik"/>
+    <tableColumn id="14" name="Air Minum"/>
+    <tableColumn id="15" name="Satpam"/>
+    <tableColumn id="16" name="Jam Malam"/>
+    <tableColumn id="17" name="Akses"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,42 +462,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="G1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -507,30 +537,33 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
+      <c r="F3" s="2">
+        <v>1300000</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -551,48 +584,56 @@
         <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P3" s="1">
         <v>0.45833333333333331</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D4">
+        <v>88812181281</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="D5">
-        <v>88812181281</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1000000</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -600,5 +641,8 @@
     <mergeCell ref="G1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Daftar Kos.xlsx
+++ b/Daftar Kos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\metrodata\latihan bootcamp 1\git\Kost-Jakarta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHAIRUL MUNA\Desktop\Kos\Kost-Jakarta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066A6A72-00D5-4878-9374-D556692952E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA17EB5-97A9-4A87-A195-714E179B2D30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Nama Kos</t>
   </si>
@@ -179,8 +179,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:Q5" totalsRowShown="0">
-  <autoFilter ref="A2:Q5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:Q7" totalsRowShown="0">
+  <autoFilter ref="A2:Q7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nama Kos"/>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,6 +643,19 @@
         <v>30</v>
       </c>
     </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:P1"/>
